--- a/conferenciaSis2/src/ReporteExcel/ReporteGrupos.xlsx
+++ b/conferenciaSis2/src/ReporteExcel/ReporteGrupos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Reporte Grupos</t>
   </si>
@@ -30,18 +30,6 @@
   </si>
   <si>
     <t>Tema</t>
-  </si>
-  <si>
-    <t>15:05:00</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ALGO ALGO</t>
   </si>
 </sst>
 </file>
@@ -182,17 +170,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="120"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.6015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="31.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.6328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.67578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.8984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -215,23 +203,6 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
